--- a/User Stories.xlsx
+++ b/User Stories.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aharvey/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://thealanturininstitute-my.sharepoint.com/personal/aharvey_turing_ac_uk/Documents/bextrabuddies_django_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B682D48A-85F7-734B-8129-DF9F5904F23B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C609D9A0-CBA9-BA48-B6D9-68C1B359D927}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="760" windowWidth="21720" windowHeight="13580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="760" windowWidth="20940" windowHeight="12340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,13 +25,13 @@
     <t>ID</t>
   </si>
   <si>
-    <t>Role</t>
-  </si>
-  <si>
-    <t>Action</t>
-  </si>
-  <si>
-    <t>Benefit</t>
+    <t>User Type</t>
+  </si>
+  <si>
+    <t>I want to be able to</t>
+  </si>
+  <si>
+    <t>So that I can</t>
   </si>
   <si>
     <t>Visitor</t>
@@ -546,7 +546,7 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -576,13 +576,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -590,13 +590,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -604,13 +604,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -618,13 +618,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -632,13 +632,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -646,13 +646,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -663,10 +663,10 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -677,10 +677,10 @@
         <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -691,10 +691,10 @@
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -702,13 +702,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -716,13 +716,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -733,10 +733,10 @@
         <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D13" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -747,10 +747,10 @@
         <v>6</v>
       </c>
       <c r="C14" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D14" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -758,13 +758,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -775,10 +775,10 @@
         <v>6</v>
       </c>
       <c r="C16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D16" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -789,10 +789,10 @@
         <v>6</v>
       </c>
       <c r="C17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -800,13 +800,13 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -814,13 +814,13 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -831,10 +831,10 @@
         <v>6</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -845,10 +845,10 @@
         <v>6</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D21" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -859,10 +859,10 @@
         <v>6</v>
       </c>
       <c r="C22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D22" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -870,16 +870,19 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C23" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="D23" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D23">
+    <sortCondition ref="B2:B23"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>